--- a/testcase/demo1.xlsx
+++ b/testcase/demo1.xlsx
@@ -42,7 +42,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -52,6 +52,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAACF91"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCF91"/>
       </patternFill>
     </fill>
     <fill>
@@ -77,14 +82,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -436,15 +443,15 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="13.88671875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="65.21875" customWidth="1" min="3" max="3"/>
-    <col width="38" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="22.6640625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="9.5546875" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.88671875" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="65.21875" customWidth="1" style="4" min="3" max="3"/>
+    <col width="38" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="22.6640625" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="9.5546875" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>UI自动化测试用例</t>
         </is>
@@ -586,7 +593,7 @@
           <t>黄财神关键字</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>PASS</t>
         </is>
@@ -645,20 +652,20 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C11" activeCellId="1" sqref="E11 C11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8" outlineLevelCol="0"/>
   <cols>
-    <col width="26.109375" customWidth="1" min="2" max="2"/>
-    <col width="29.33203125" customWidth="1" min="3" max="3"/>
-    <col width="27.77734375" customWidth="1" min="4" max="4"/>
-    <col width="20.109375" customWidth="1" min="5" max="5"/>
-    <col width="38.109375" customWidth="1" min="6" max="6"/>
+    <col width="26.109375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="29.33203125" customWidth="1" style="4" min="3" max="3"/>
+    <col width="27.77734375" customWidth="1" style="4" min="4" max="4"/>
+    <col width="20.109375" customWidth="1" style="4" min="5" max="5"/>
+    <col width="38.109375" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>UI自动化测试用例</t>
         </is>
@@ -800,7 +807,7 @@
           <t>dadasdasd</t>
         </is>
       </c>
-      <c r="F7" s="4" t="inlineStr">
+      <c r="F7" s="6" t="inlineStr">
         <is>
           <t>FAIL</t>
         </is>
@@ -817,7 +824,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>time_=2</t>
+          <t>time_=1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
